--- a/models/comparaison_modeles.xlsx
+++ b/models/comparaison_modeles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,85 +453,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RMSE Train</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>€13,932.46</t>
+          <t>€11,553.93</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>€4,998.77</t>
+          <t>€11,434.94</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RMSE Test</t>
+          <t>R²</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>€14,324.58</t>
+          <t>0.8240</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>€14,628.97</t>
+          <t>0.8276</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R² Train</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.8498</t>
+          <t>€4,558.51</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9807</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>R² Test</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.7741</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.7644</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MAE Test</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>€6,369.87</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>€6,285.82</t>
+          <t>€4,112.12</t>
         </is>
       </c>
     </row>

--- a/models/comparaison_modeles.xlsx
+++ b/models/comparaison_modeles.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>€11,553.93</t>
+          <t>€9,724.01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>€11,434.94</t>
+          <t>€8,974.31</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.8240</t>
+          <t>0.8302</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.8276</t>
+          <t>0.8554</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>€4,558.51</t>
+          <t>€4,459.42</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>€4,112.12</t>
+          <t>€4,183.93</t>
         </is>
       </c>
     </row>

--- a/models/comparaison_modeles.xlsx
+++ b/models/comparaison_modeles.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>€9,724.01</t>
+          <t>€27,144.34</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>€8,974.31</t>
+          <t>€27,459.02</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.8302</t>
+          <t>-1650788376.1205</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.8554</t>
+          <t>-1689285588.1029</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>€4,459.42</t>
+          <t>€22,130.19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>€4,183.93</t>
+          <t>€22,360.75</t>
         </is>
       </c>
     </row>
